--- a/hardware/v4/Robotic Arm V4 BOM.xlsx
+++ b/hardware/v4/Robotic Arm V4 BOM.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="630" windowWidth="19815" windowHeight="9405"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>Partlist exported from C:/Users/Mike M/Documents/GitHub/Robotic-Arm/hardware/v4/Arm Board V4.sch at 3/9/2015 4:30:44 AM</t>
   </si>
@@ -233,28 +236,47 @@
   </si>
   <si>
     <t>U2</t>
+  </si>
+  <si>
+    <t>732-2757-ND</t>
+  </si>
+  <si>
+    <t>Wurth Electronic's 2-pin 10A pluggable screw terminal headers MALE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -270,401 +292,703 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
-      <alignment/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" s="1" r="A2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="B2">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="C2">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="D2">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="E2">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="F2">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="G2">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="H2">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="I2">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="J2">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="K2">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="L2">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="M2">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="1" r="N2">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c s="2" r="A3">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="2" r="C3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="2" r="D3">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="2" r="E3">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="2" r="F3">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c s="2" r="A4">
-        <v>3.0</v>
-      </c>
-      <c t="s" s="2" r="C4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c t="s" s="2" r="D4">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="2" r="E4">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="2" r="F4">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5">
-      <c s="2" r="A5">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="2" r="B5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="2" r="C5">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c s="2" r="D5">
-        <v>1206.0</v>
-      </c>
-      <c t="s" s="2" r="E5">
+      <c r="D5" s="2">
+        <v>1206</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="2" r="F5">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
-      <c s="2" r="A6">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="2" r="B6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="2" r="C6">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c s="2" r="D6">
-        <v>1206.0</v>
-      </c>
-      <c t="s" s="2" r="E6">
+      <c r="D6" s="2">
+        <v>1206</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c t="s" s="2" r="F6">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7">
-      <c s="2" r="A7">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="2" r="B7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="2" r="C7">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c s="2" r="D7">
-        <v>1206.0</v>
-      </c>
-      <c t="s" s="2" r="E7">
+      <c r="D7" s="2">
+        <v>1206</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="2" r="F7">
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c s="2" r="A8">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="2" r="B8">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="2" r="C8">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="2" r="D8">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="2" r="E8">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="2" r="F8">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="2" r="L8">
+      <c r="L8" s="2" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="2" r="N8">
+      <c r="N8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9">
-      <c s="2" r="A9">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="2" r="B9">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="2" r="C9">
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
-      <c s="2" r="D9">
-        <v>6.91321100002E11</v>
-      </c>
-      <c t="s" s="2" r="E9">
+      <c r="D9" s="2">
+        <v>691321100002</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="2" r="F9">
+      <c r="F9" s="2" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="2" r="G9">
+      <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10">
-      <c s="2" r="A10">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="2" r="B10">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="2" r="C10">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="2" r="D10">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c t="s" s="2" r="E10">
+      <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11">
-      <c s="2" r="A11">
-        <v>3.0</v>
-      </c>
-      <c t="s" s="2" r="B11">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c t="s" s="2" r="C11">
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="2" r="D11">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="2" r="E11">
+      <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
-      <c t="s" s="2" r="F11">
+      <c r="F12" s="2" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="2" r="L11">
+      <c r="L12" s="2" t="s">
         <v>50</v>
       </c>
-      <c t="s" s="2" r="N11">
+      <c r="N12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12">
-      <c s="2" r="A12">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="2" r="B12">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="2" r="C12">
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="2" r="D12">
+      <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="2" r="E12">
+      <c r="E13" s="2" t="s">
         <v>53</v>
       </c>
-      <c t="s" s="2" r="F12">
+      <c r="F13" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13">
-      <c s="2" r="A13">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="2" r="B13">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="2" r="C13">
+      <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="2" r="D13">
+      <c r="D14" s="2" t="s">
         <v>56</v>
       </c>
-      <c t="s" s="2" r="E13">
+      <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="2" r="F13">
+      <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c t="s" s="2" r="H13">
+      <c r="H14" s="2" t="s">
         <v>55</v>
       </c>
-      <c s="2" r="I13">
-        <v>1739687.0</v>
-      </c>
-      <c t="s" s="2" r="J13">
+      <c r="I14" s="2">
+        <v>1739687</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="2" r="K13">
+      <c r="K14" s="2" t="s">
         <v>60</v>
       </c>
-      <c t="s" s="2" r="M13">
+      <c r="M14" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14">
-      <c s="2" r="A14">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="2" r="B14">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="2" r="C14">
+      <c r="C15" s="2" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="2" r="D14">
+      <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="2" r="E14">
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c t="s" s="2" r="F14">
+      <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15">
-      <c s="2" r="A15">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="2" r="B15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>66</v>
       </c>
-      <c t="s" s="2" r="C15">
+      <c r="C16" s="2" t="s">
         <v>66</v>
       </c>
-      <c t="s" s="2" r="D15">
+      <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-      <c t="s" s="2" r="E15">
+      <c r="E16" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16">
-      <c s="2" r="A16">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="2" r="B16">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>69</v>
       </c>
-      <c t="s" s="2" r="C16">
+      <c r="C17" s="2" t="s">
         <v>69</v>
       </c>
-      <c t="s" s="2" r="D16">
+      <c r="D17" s="2" t="s">
         <v>69</v>
       </c>
-      <c t="s" s="2" r="E16">
+      <c r="E17" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17">
-      <c s="2" r="A17">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="2" r="B17">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
-      <c t="s" s="2" r="C17">
+      <c r="C18" s="2" t="s">
         <v>71</v>
       </c>
-      <c t="s" s="2" r="D17">
+      <c r="D18" s="2" t="s">
         <v>72</v>
       </c>
-      <c t="s" s="2" r="E17">
+      <c r="E18" s="2" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hardware/v4/Robotic Arm V4 BOM.xlsx
+++ b/hardware/v4/Robotic Arm V4 BOM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Users\msa3204\My Documents\GitHub\Robotic-Arm\Hardware\v4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="630" windowWidth="19815" windowHeight="9405"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>Partlist exported from C:/Users/Mike M/Documents/GitHub/Robotic-Arm/hardware/v4/Arm Board V4.sch at 3/9/2015 4:30:44 AM</t>
   </si>
@@ -242,13 +247,67 @@
   </si>
   <si>
     <t>Wurth Electronic's 2-pin 10A pluggable screw terminal headers MALE</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>DIODE1N4148</t>
+  </si>
+  <si>
+    <t>DIODE-1N4148</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>5.6nF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>L6206D</t>
+  </si>
+  <si>
+    <t>SO24</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>DUAL DMOS FULL BRIDGE MOTOR DRIVER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -269,6 +328,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,11 +361,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,6 +382,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -360,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +468,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,277 +789,844 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>1206</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>1206</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1206</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
-        <v>691321100002</v>
+        <v>1206</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="B10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1206</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1206</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1206</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1739687</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+      <c r="D15" s="2">
+        <v>691321100002</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1739687</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardware/v4/Robotic Arm V4 BOM.xlsx
+++ b/hardware/v4/Robotic Arm V4 BOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Users\msa3204\My Documents\GitHub\Robotic-Arm\Hardware\v4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\GitHub\Robotic-Arm\Hardware\v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="390" yWindow="1230" windowWidth="19815" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>Partlist exported from C:/Users/Mike M/Documents/GitHub/Robotic-Arm/hardware/v4/Arm Board V4.sch at 3/9/2015 4:30:44 AM</t>
   </si>
@@ -66,18 +66,9 @@
     <t>VALUE</t>
   </si>
   <si>
-    <t>M03PTH</t>
-  </si>
-  <si>
-    <t>1X03</t>
-  </si>
-  <si>
     <t>JP9, JP10, JP11, JP12</t>
   </si>
   <si>
-    <t>Header 3</t>
-  </si>
-  <si>
     <t>M04PTH</t>
   </si>
   <si>
@@ -123,27 +114,15 @@
     <t>GREEN</t>
   </si>
   <si>
-    <t>LED-GREEN0603</t>
-  </si>
-  <si>
-    <t>LED-0603</t>
-  </si>
-  <si>
     <t>LED3</t>
   </si>
   <si>
     <t>Various green LEDs</t>
   </si>
   <si>
-    <t>DIO-00821</t>
-  </si>
-  <si>
     <t>H_WR-TBL_321*0002VERT</t>
   </si>
   <si>
-    <t>U$7</t>
-  </si>
-  <si>
     <t>Wurth Electronic's 2-pin 10A pluggable screw terminal headers. Vertical and Horizantal</t>
   </si>
   <si>
@@ -162,18 +141,9 @@
     <t>RED</t>
   </si>
   <si>
-    <t>LED-RED0603</t>
-  </si>
-  <si>
     <t>D1, LED1, LED2</t>
   </si>
   <si>
-    <t>Assorted Red LEDs</t>
-  </si>
-  <si>
-    <t>DIO-00819</t>
-  </si>
-  <si>
     <t>RJ45-8PTH</t>
   </si>
   <si>
@@ -267,12 +237,6 @@
     <t>1N4148</t>
   </si>
   <si>
-    <t>DIODE1N4148</t>
-  </si>
-  <si>
-    <t>DIODE-1N4148</t>
-  </si>
-  <si>
     <t>D2, D3</t>
   </si>
   <si>
@@ -301,13 +265,61 @@
   </si>
   <si>
     <t>DUAL DMOS FULL BRIDGE MOTOR DRIVER</t>
+  </si>
+  <si>
+    <t>DIODESOD123</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
+  </si>
+  <si>
+    <t>330uF</t>
+  </si>
+  <si>
+    <t>CAP_POLE</t>
+  </si>
+  <si>
+    <t>PANASONIC_E</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Capacitor Polarized</t>
+  </si>
+  <si>
+    <t>DYNAMIXEL-1X03</t>
+  </si>
+  <si>
+    <t>LED-GREENLARGE</t>
+  </si>
+  <si>
+    <t>LED-1206</t>
+  </si>
+  <si>
+    <t>DIO-00862</t>
+  </si>
+  <si>
+    <t>U$6, U$7</t>
+  </si>
+  <si>
+    <t>LED1206</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>97M9695</t>
+  </si>
+  <si>
+    <t>24M4234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -332,6 +344,16 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -361,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -373,6 +395,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -691,121 +717,149 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="5">
+        <v>1206</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5">
         <v>1206</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
-        <v>100</v>
+      <c r="B6" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5">
         <v>1206</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -821,19 +875,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5">
         <v>1206</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -846,22 +900,22 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5">
         <v>1206</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -873,43 +927,51 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1206</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>83</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1206</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -921,43 +983,51 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5">
         <v>1206</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1206</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -973,19 +1043,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5">
         <v>1206</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -997,52 +1067,61 @@
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2">
-        <v>691321100002</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>42</v>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1054,208 +1133,307 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>91</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="5">
+        <v>691321100002</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="F21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1739687</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="K22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1739687</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="C25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>

--- a/hardware/v4/Robotic Arm V4 BOM.xlsx
+++ b/hardware/v4/Robotic Arm V4 BOM.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\GitHub\Robotic-Arm\Hardware\v4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="2430" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="400" yWindow="2440" windowWidth="19820" windowHeight="9400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
   <si>
     <t>Partlist exported from C:/Users/Mike M/Documents/GitHub/Robotic-Arm/hardware/v4/Arm Board V4.sch at 3/9/2015 4:30:44 AM</t>
   </si>
@@ -355,13 +355,34 @@
   </si>
   <si>
     <t>96W2437</t>
+  </si>
+  <si>
+    <t>SMAJ5920</t>
+  </si>
+  <si>
+    <t>DIODE-SCHOTTKY-MBRA140</t>
+  </si>
+  <si>
+    <t>SMA-DIODE</t>
+  </si>
+  <si>
+    <t>D4, D5, D6, D7</t>
+  </si>
+  <si>
+    <t>Schottky diodes in SFE's production catalog</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>51T4985</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -404,6 +425,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -433,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -453,6 +480,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,7 +582,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,26 +794,26 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="4"/>
-    <col min="2" max="2" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="4"/>
+    <col min="1" max="1" width="14.5" style="4"/>
+    <col min="2" max="2" width="24.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="14.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -829,7 +860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <v>3</v>
       </c>
@@ -856,7 +887,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -887,7 +918,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -918,7 +949,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -949,7 +980,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -980,7 +1011,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -1011,7 +1042,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -1042,7 +1073,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -1073,7 +1104,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -1104,7 +1135,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -1135,7 +1166,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -1166,7 +1197,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="7">
         <v>4</v>
       </c>
@@ -1195,7 +1226,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -1230,7 +1261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="7">
         <v>2</v>
       </c>
@@ -1264,7 +1295,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -1284,7 +1315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1302,7 +1333,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -1332,7 +1363,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="A20" s="7">
         <v>1</v>
       </c>
@@ -1360,7 +1391,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="A21" s="7">
         <v>3</v>
       </c>
@@ -1390,7 +1421,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="7">
         <v>1</v>
       </c>
@@ -1419,7 +1450,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="7">
         <v>1</v>
       </c>
@@ -1458,7 +1489,7 @@
       </c>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="7">
         <v>4</v>
       </c>
@@ -1489,7 +1520,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="7">
         <v>1</v>
       </c>
@@ -1518,7 +1549,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="7">
         <v>1</v>
       </c>
@@ -1547,7 +1578,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="7">
         <v>1</v>
       </c>
@@ -1576,10 +1607,36 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A28" s="13">
+        <v>4</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="11"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1596,7 +1653,7 @@
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1613,7 +1670,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1630,7 +1687,7 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1647,7 +1704,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1664,7 +1721,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1681,7 +1738,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1698,7 +1755,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1715,7 +1772,7 @@
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1732,7 +1789,7 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1749,7 +1806,7 @@
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1766,7 +1823,7 @@
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1783,7 +1840,7 @@
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1800,7 +1857,7 @@
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1817,7 +1874,7 @@
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1834,7 +1891,7 @@
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1851,7 +1908,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1868,7 +1925,7 @@
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1885,7 +1942,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1902,7 +1959,7 @@
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1919,7 +1976,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="15.75" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1936,7 +1993,7 @@
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1953,7 +2010,7 @@
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
     </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="15.75" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1987,6 +2044,11 @@
     <hyperlink ref="J12" r:id="rId13" tooltip="96W2437" display="http://www.newark.com/cornell-dubilier/ave337m06x16t-f/aluminum-electrolytic-capacitor/dp/96W2437"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>